--- a/inputs/odias_labels_new.xlsx
+++ b/inputs/odias_labels_new.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmdnkr\Documents\GitHub\odias\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD6A7C5-23A9-4053-9213-C02780757F90}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C827F6A-5F8A-48D8-8614-BE0D41783603}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="13SEP24" sheetId="4" r:id="rId1"/>
+    <sheet name="13SEP24_SWEEP_ON_FUEL" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>

--- a/inputs/odias_labels_new.xlsx
+++ b/inputs/odias_labels_new.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmdnkr\Documents\GitHub\odias\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\hmdni\OneDrive\Documents\GitHub\odias\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C827F6A-5F8A-48D8-8614-BE0D41783603}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{909A363D-6A7A-4474-9F89-A4FDE15D8983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="13SEP24_SWEEP_ON_FUEL" sheetId="4" r:id="rId1"/>
@@ -364,7 +364,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/inputs/odias_labels_new.xlsx
+++ b/inputs/odias_labels_new.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\hmdni\OneDrive\Documents\GitHub\odias\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{909A363D-6A7A-4474-9F89-A4FDE15D8983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{199A877D-9A9A-4AFA-8CF6-4E0FCC359809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="13SEP24_SWEEP_ON_FUEL" sheetId="4" r:id="rId1"/>
+    <sheet name="23JUL24_SWEEP_ON_AIR" sheetId="5" r:id="rId2"/>
+    <sheet name="20JUL24_SWEEP_ON_FUEL" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="8">
   <si>
     <t>Q_f</t>
   </si>
@@ -39,10 +41,16 @@
     <t>low</t>
   </si>
   <si>
-    <t>Agglom</t>
+    <t>high</t>
   </si>
   <si>
-    <t>medium</t>
+    <t>Q_n</t>
+  </si>
+  <si>
+    <t>m_nof</t>
+  </si>
+  <si>
+    <t>Agglom</t>
   </si>
 </sst>
 </file>
@@ -364,7 +372,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -377,7 +385,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -472,7 +480,7 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" s="1"/>
     </row>
@@ -484,7 +492,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" s="1"/>
     </row>
@@ -495,6 +503,486 @@
       <c r="B11" s="1" t="s">
         <v>2</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2025863E-BC07-424F-B878-D13AF188D89A}">
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.13</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.13</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.13</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>0.08</v>
+      </c>
+      <c r="D4">
+        <v>0.625</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.13</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>0.08</v>
+      </c>
+      <c r="D5">
+        <v>0.625</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.16980000000000001</v>
+      </c>
+      <c r="B6">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>0.105</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.16980000000000001</v>
+      </c>
+      <c r="B7">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>0.105</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.16980000000000001</v>
+      </c>
+      <c r="B8">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>0.105</v>
+      </c>
+      <c r="D8">
+        <v>0.625</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.16980000000000001</v>
+      </c>
+      <c r="B9">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>0.105</v>
+      </c>
+      <c r="D9">
+        <v>0.625</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="B10">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>0.129</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="B11">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>0.129</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="B12">
+        <v>16</v>
+      </c>
+      <c r="C12">
+        <v>0.129</v>
+      </c>
+      <c r="D12">
+        <v>0.625</v>
+      </c>
+      <c r="E12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="B13">
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <v>0.129</v>
+      </c>
+      <c r="D13">
+        <v>0.625</v>
+      </c>
+      <c r="E13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0.24809999999999999</v>
+      </c>
+      <c r="B14">
+        <v>19</v>
+      </c>
+      <c r="C14">
+        <v>0.153</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0.24809999999999999</v>
+      </c>
+      <c r="B15">
+        <v>19</v>
+      </c>
+      <c r="C15">
+        <v>0.153</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0.24809999999999999</v>
+      </c>
+      <c r="B16">
+        <v>19</v>
+      </c>
+      <c r="C16">
+        <v>0.153</v>
+      </c>
+      <c r="D16">
+        <v>0.625</v>
+      </c>
+      <c r="E16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0.24809999999999999</v>
+      </c>
+      <c r="B17">
+        <v>19</v>
+      </c>
+      <c r="C17">
+        <v>0.153</v>
+      </c>
+      <c r="D17">
+        <v>0.625</v>
+      </c>
+      <c r="E17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD54F46B-74D1-410F-8672-1CA20743FEB6}">
+  <dimension ref="A4:E12"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.13</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.13</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="D6">
+        <v>0.5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.13</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>0.08</v>
+      </c>
+      <c r="D7">
+        <v>0.625</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.13</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="D8">
+        <v>0.75</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.16980000000000001</v>
+      </c>
+      <c r="B9">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>0.105</v>
+      </c>
+      <c r="D9">
+        <v>0.625</v>
+      </c>
+      <c r="E9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="B10">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>0.129</v>
+      </c>
+      <c r="D10">
+        <v>0.625</v>
+      </c>
+      <c r="E10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.24809999999999999</v>
+      </c>
+      <c r="B11">
+        <v>19</v>
+      </c>
+      <c r="C11">
+        <v>0.153</v>
+      </c>
+      <c r="D11">
+        <v>0.625</v>
+      </c>
+      <c r="E11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/inputs/odias_labels_new.xlsx
+++ b/inputs/odias_labels_new.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\hmdni\OneDrive\Documents\GitHub\odias\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{199A877D-9A9A-4AFA-8CF6-4E0FCC359809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F6481A-96BC-4790-A055-D500B3DE6CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1425" yWindow="1425" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="13SEP24_SWEEP_ON_FUEL" sheetId="4" r:id="rId1"/>
     <sheet name="23JUL24_SWEEP_ON_AIR" sheetId="5" r:id="rId2"/>
-    <sheet name="20JUL24_SWEEP_ON_FUEL" sheetId="6" r:id="rId3"/>
+    <sheet name="20JUL24_SWEEP_ON_NITROGEN" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -371,7 +371,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FBEF317-768D-4A04-98BA-90E8FE55E3DF}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -514,7 +514,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -612,7 +612,7 @@
         <v>13</v>
       </c>
       <c r="C6">
-        <v>0.105</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -629,7 +629,7 @@
         <v>13</v>
       </c>
       <c r="C7">
-        <v>0.105</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>16</v>
       </c>
       <c r="C10">
-        <v>0.129</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -697,7 +697,7 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>0.129</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -748,7 +748,7 @@
         <v>19</v>
       </c>
       <c r="C14">
-        <v>0.153</v>
+        <v>0</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -765,7 +765,7 @@
         <v>19</v>
       </c>
       <c r="C15">
-        <v>0.153</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -828,29 +828,80 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD54F46B-74D1-410F-8672-1CA20743FEB6}">
-  <dimension ref="A4:E12"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.13</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.13</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="D3">
+        <v>0.5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>7</v>
+      <c r="A4">
+        <v>0.13</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>0.08</v>
+      </c>
+      <c r="D4">
+        <v>0.625</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -861,10 +912,10 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="E5" t="s">
         <v>3</v>
@@ -872,16 +923,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.13</v>
+        <v>0.16980000000000001</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C6">
-        <v>6.4000000000000001E-2</v>
+        <v>0.105</v>
       </c>
       <c r="D6">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="E6" t="s">
         <v>3</v>
@@ -889,13 +940,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.13</v>
+        <v>0.20899999999999999</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C7">
-        <v>0.08</v>
+        <v>0.129</v>
       </c>
       <c r="D7">
         <v>0.625</v>
@@ -906,83 +957,32 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.13</v>
+        <v>0.24809999999999999</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C8">
-        <v>9.6000000000000002E-2</v>
+        <v>0.153</v>
       </c>
       <c r="D8">
-        <v>0.75</v>
+        <v>0.625</v>
       </c>
       <c r="E8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>0.16980000000000001</v>
-      </c>
-      <c r="B9">
-        <v>13</v>
-      </c>
-      <c r="C9">
-        <v>0.105</v>
-      </c>
-      <c r="D9">
-        <v>0.625</v>
-      </c>
-      <c r="E9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>0.20899999999999999</v>
-      </c>
-      <c r="B10">
-        <v>16</v>
-      </c>
-      <c r="C10">
-        <v>0.129</v>
-      </c>
-      <c r="D10">
-        <v>0.625</v>
-      </c>
-      <c r="E10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>0.24809999999999999</v>
-      </c>
-      <c r="B11">
-        <v>19</v>
-      </c>
-      <c r="C11">
-        <v>0.153</v>
-      </c>
-      <c r="D11">
-        <v>0.625</v>
-      </c>
-      <c r="E11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="1"/>
+      <c r="D9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/inputs/odias_labels_new.xlsx
+++ b/inputs/odias_labels_new.xlsx
@@ -8,26 +8,38 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\hmdni\OneDrive\Documents\GitHub\odias\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F6481A-96BC-4790-A055-D500B3DE6CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69CF166E-A21D-43F2-A028-D351C93F83C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1425" yWindow="1425" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="13SEP24_SWEEP_ON_FUEL" sheetId="4" r:id="rId1"/>
+    <sheet name="ET017_NIT013_AIR16_DIST" sheetId="7" r:id="rId1"/>
     <sheet name="23JUL24_SWEEP_ON_AIR" sheetId="5" r:id="rId2"/>
     <sheet name="20JUL24_SWEEP_ON_NITROGEN" sheetId="6" r:id="rId3"/>
+    <sheet name="13SEP24_SWEEP_ON_FUEL" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="27">
   <si>
     <t>Q_f</t>
   </si>
@@ -51,16 +63,79 @@
   </si>
   <si>
     <t>Agglom</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Repeat</t>
+  </si>
+  <si>
+    <t>23 JUL. 24</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>26 JUL. 24</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>30 JUL. 24</t>
+  </si>
+  <si>
+    <t>\#</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>19 AUG. 24</t>
+  </si>
+  <si>
+    <t>20 AUG. 24</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>21 AUG. 24</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>28 AUG. 24</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -368,143 +443,243 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FBEF317-768D-4A04-98BA-90E8FE55E3DF}">
-  <dimension ref="A1:D11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FCC4001-51B9-4279-A3FF-BA4CAE7D4664}">
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0.13</v>
-      </c>
-      <c r="B2">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0.12</v>
-      </c>
-      <c r="B3">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0.11</v>
-      </c>
-      <c r="B4">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>0.1</v>
-      </c>
-      <c r="B5">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0.09</v>
-      </c>
-      <c r="B6">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>0.08</v>
-      </c>
-      <c r="B7">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="B8">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>0.13</v>
-      </c>
-      <c r="B9">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>0.08</v>
-      </c>
-      <c r="B10">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -830,7 +1005,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD54F46B-74D1-410F-8672-1CA20743FEB6}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E11"/>
     </sheetView>
   </sheetViews>
@@ -987,4 +1162,146 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FBEF317-768D-4A04-98BA-90E8FE55E3DF}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.13</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.12</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.11</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.1</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.09</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.08</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.13</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.08</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/inputs/odias_labels_new.xlsx
+++ b/inputs/odias_labels_new.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\hmdni\OneDrive\Documents\GitHub\odias\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69CF166E-A21D-43F2-A028-D351C93F83C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6797EA24-E2A4-4070-A245-11958AF02A47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ET017_NIT013_AIR16_DIST" sheetId="7" r:id="rId1"/>
-    <sheet name="23JUL24_SWEEP_ON_AIR" sheetId="5" r:id="rId2"/>
-    <sheet name="20JUL24_SWEEP_ON_NITROGEN" sheetId="6" r:id="rId3"/>
-    <sheet name="13SEP24_SWEEP_ON_FUEL" sheetId="4" r:id="rId4"/>
+    <sheet name="19AUG24_LOWAGGLOM_TANDEM" sheetId="8" r:id="rId1"/>
+    <sheet name="ET017_NIT013_AIR16_DIST" sheetId="7" r:id="rId2"/>
+    <sheet name="23JUL24_SWEEP_ON_AIR" sheetId="5" r:id="rId3"/>
+    <sheet name="20JUL24_SWEEP_ON_NITROGEN" sheetId="6" r:id="rId4"/>
+    <sheet name="13SEP24_SWEEP_ON_FUEL" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="29">
   <si>
     <t>Q_f</t>
   </si>
@@ -120,6 +121,12 @@
   </si>
   <si>
     <t>28 AUG. 24</t>
+  </si>
+  <si>
+    <t>da</t>
+  </si>
+  <si>
+    <t>nm</t>
   </si>
 </sst>
 </file>
@@ -161,9 +168,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,10 +451,188 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389217E3-4E52-4BC7-B8D7-4BC23C109860}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2">
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2">
+        <v>43.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2">
+        <v>50.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>59.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2">
+        <v>69.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2">
+        <v>81.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2">
+        <v>95.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2">
+        <v>112.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="2">
+        <v>131.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="2">
+        <v>154.30000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2">
+        <v>180.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="2">
+        <v>211.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FCC4001-51B9-4279-A3FF-BA4CAE7D4664}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -684,7 +870,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2025863E-BC07-424F-B878-D13AF188D89A}">
   <dimension ref="A1:E18"/>
   <sheetViews>
@@ -1001,7 +1187,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD54F46B-74D1-410F-8672-1CA20743FEB6}">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -1164,7 +1350,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FBEF317-768D-4A04-98BA-90E8FE55E3DF}">
   <dimension ref="A1:D11"/>
   <sheetViews>

--- a/inputs/odias_labels_new.xlsx
+++ b/inputs/odias_labels_new.xlsx
@@ -8,16 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\hmdni\OneDrive\Documents\GitHub\odias\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6797EA24-E2A4-4070-A245-11958AF02A47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C4E9D5-E08A-40BA-8397-D73E724A77A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="19AUG24_LOWAGGLOM_TANDEM" sheetId="8" r:id="rId1"/>
-    <sheet name="ET017_NIT013_AIR16_DIST" sheetId="7" r:id="rId2"/>
-    <sheet name="23JUL24_SWEEP_ON_AIR" sheetId="5" r:id="rId3"/>
-    <sheet name="20JUL24_SWEEP_ON_NITROGEN" sheetId="6" r:id="rId4"/>
-    <sheet name="13SEP24_SWEEP_ON_FUEL" sheetId="4" r:id="rId5"/>
+    <sheet name="30JUL24_HIGHAGGLOM_TANDEM" sheetId="14" r:id="rId1"/>
+    <sheet name="26JUL24_LOWAGGLOM_TANDEM" sheetId="13" r:id="rId2"/>
+    <sheet name="28AUG24_HIGHAGGLOM_TANDEM" sheetId="12" r:id="rId3"/>
+    <sheet name="20AUG24_HIGHAGGLOM_TANDEM" sheetId="11" r:id="rId4"/>
+    <sheet name="20AUG24_LOWAGGLOM_TANDEM" sheetId="10" r:id="rId5"/>
+    <sheet name="21AUG24_HIGHAGGLOM_TANDEM" sheetId="9" r:id="rId6"/>
+    <sheet name="19AUG24_LOWAGGLOM_TANDEM" sheetId="8" r:id="rId7"/>
+    <sheet name="ET017_NIT013_AIR16_DIST" sheetId="7" r:id="rId8"/>
+    <sheet name="23JUL24_SWEEP_ON_AIR" sheetId="5" r:id="rId9"/>
+    <sheet name="20JUL24_SWEEP_ON_NITROGEN" sheetId="6" r:id="rId10"/>
+    <sheet name="13SEP24_SWEEP_ON_FUEL" sheetId="4" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="29">
   <si>
     <t>Q_f</t>
   </si>
@@ -133,6 +139,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -168,10 +177,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,10 +461,1380 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56594976-E9EE-43CC-9355-D71CEE81843A}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>43.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>50.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>59.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>69.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>81.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>95.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>112.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>131.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>154.30000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>180.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>211.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>248.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>291.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD54F46B-74D1-410F-8672-1CA20743FEB6}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.13</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.13</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="D3">
+        <v>0.5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.13</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>0.08</v>
+      </c>
+      <c r="D4">
+        <v>0.625</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.13</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="D5">
+        <v>0.75</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.16980000000000001</v>
+      </c>
+      <c r="B6">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>0.105</v>
+      </c>
+      <c r="D6">
+        <v>0.625</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="B7">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>0.129</v>
+      </c>
+      <c r="D7">
+        <v>0.625</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.24809999999999999</v>
+      </c>
+      <c r="B8">
+        <v>19</v>
+      </c>
+      <c r="C8">
+        <v>0.153</v>
+      </c>
+      <c r="D8">
+        <v>0.625</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FBEF317-768D-4A04-98BA-90E8FE55E3DF}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.13</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.12</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.11</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.1</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.09</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.08</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.13</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.08</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E795ADCB-0CBC-4EFE-B830-C148C8037C17}">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>46.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>64.400000000000006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>75.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>88.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>103.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>121.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>142.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>195.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>229.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAD73EBE-1EAA-44DC-A0C0-8157A532E2E4}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3">
+        <v>46.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3">
+        <v>64.400000000000006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3">
+        <v>75.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3">
+        <v>88.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3">
+        <v>103.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3">
+        <v>121.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="3">
+        <v>142.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="3">
+        <v>195.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="3">
+        <v>229.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="3">
+        <v>268.89999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C15" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44632B00-FC5D-4DBD-8F00-AB03E4F5356D}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3">
+        <v>46.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3">
+        <v>64.400000000000006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3">
+        <v>75.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3">
+        <v>88.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3">
+        <v>103.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3">
+        <v>121.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="3">
+        <v>142.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="3">
+        <v>195.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="3">
+        <v>229.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="3">
+        <v>291.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C15" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F2C525F-95DB-48C6-90C1-5B53F4E14E89}">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2">
+        <v>29.130528992918819</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2">
+        <v>34.135335939708469</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2">
+        <v>46.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2">
+        <v>64.400000000000006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2">
+        <v>75.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2">
+        <v>88.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2">
+        <v>103.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="2">
+        <v>121.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="2">
+        <v>142.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="2">
+        <v>195.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2">
+        <v>229.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C16" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41BFA0A0-46FE-44C4-8DCF-97D89F82D692}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2">
+        <v>43.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2">
+        <v>50.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2">
+        <v>59.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2">
+        <v>69.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2">
+        <v>81.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2">
+        <v>95.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2">
+        <v>112.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2">
+        <v>131.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2">
+        <v>154.30000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2">
+        <v>180.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="2">
+        <v>211.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="2">
+        <v>248.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="2">
+        <v>291.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389217E3-4E52-4BC7-B8D7-4BC23C109860}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -628,7 +2008,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FCC4001-51B9-4279-A3FF-BA4CAE7D4664}">
   <dimension ref="A1:C28"/>
   <sheetViews>
@@ -870,7 +2250,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2025863E-BC07-424F-B878-D13AF188D89A}">
   <dimension ref="A1:E18"/>
   <sheetViews>
@@ -1185,309 +2565,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD54F46B-74D1-410F-8672-1CA20743FEB6}">
-  <dimension ref="A1:E9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0.13</v>
-      </c>
-      <c r="B2">
-        <v>10</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0.13</v>
-      </c>
-      <c r="B3">
-        <v>10</v>
-      </c>
-      <c r="C3">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="D3">
-        <v>0.5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0.13</v>
-      </c>
-      <c r="B4">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>0.08</v>
-      </c>
-      <c r="D4">
-        <v>0.625</v>
-      </c>
-      <c r="E4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>0.13</v>
-      </c>
-      <c r="B5">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="D5">
-        <v>0.75</v>
-      </c>
-      <c r="E5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0.16980000000000001</v>
-      </c>
-      <c r="B6">
-        <v>13</v>
-      </c>
-      <c r="C6">
-        <v>0.105</v>
-      </c>
-      <c r="D6">
-        <v>0.625</v>
-      </c>
-      <c r="E6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>0.20899999999999999</v>
-      </c>
-      <c r="B7">
-        <v>16</v>
-      </c>
-      <c r="C7">
-        <v>0.129</v>
-      </c>
-      <c r="D7">
-        <v>0.625</v>
-      </c>
-      <c r="E7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>0.24809999999999999</v>
-      </c>
-      <c r="B8">
-        <v>19</v>
-      </c>
-      <c r="C8">
-        <v>0.153</v>
-      </c>
-      <c r="D8">
-        <v>0.625</v>
-      </c>
-      <c r="E8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FBEF317-768D-4A04-98BA-90E8FE55E3DF}">
-  <dimension ref="A1:D11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0.13</v>
-      </c>
-      <c r="B2">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0.12</v>
-      </c>
-      <c r="B3">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0.11</v>
-      </c>
-      <c r="B4">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>0.1</v>
-      </c>
-      <c r="B5">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0.09</v>
-      </c>
-      <c r="B6">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>0.08</v>
-      </c>
-      <c r="B7">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="B8">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>0.13</v>
-      </c>
-      <c r="B9">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>0.08</v>
-      </c>
-      <c r="B10">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/inputs/odias_labels_new.xlsx
+++ b/inputs/odias_labels_new.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\hmdni\OneDrive\Documents\GitHub\odias\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C4E9D5-E08A-40BA-8397-D73E724A77A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67F7F3E-5309-4A6A-8FAF-76A6E7938E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="30JUL24_HIGHAGGLOM_TANDEM" sheetId="14" r:id="rId1"/>
@@ -464,7 +464,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56594976-E9EE-43CC-9355-D71CEE81843A}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C14"/>
     </sheetView>
   </sheetViews>
@@ -1468,8 +1468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F2C525F-95DB-48C6-90C1-5B53F4E14E89}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
